--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>773480.3414393917</v>
+        <v>774264.4873774205</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5058392.175195281</v>
+        <v>5058392.175195283</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,61 +670,61 @@
         <v>205.5178444382804</v>
       </c>
       <c r="F2" t="n">
-        <v>31.1509994400877</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +740,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>19.84004947482878</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.025818986541212</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +791,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,17 +895,17 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="D5" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="E5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -972,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>155.8837635961715</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1032,16 +1034,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>14.48693373137006</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,76 +1132,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>181.0201173812374</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V8" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1215,25 +1217,25 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>4.552930681163994</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V9" t="n">
-        <v>119.3034809802377</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1315,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,58 +1384,58 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9.211010870930398</v>
-      </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1446,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1494,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.692106705274854</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>158.2881417686508</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1552,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.30348359856712</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1628,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T14" t="n">
         <v>205.5178444382804</v>
@@ -1664,7 +1666,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V14" t="n">
-        <v>9.211010870930398</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1698,16 +1700,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>83.82366897073301</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1743,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="T17" t="n">
-        <v>84.41978777916125</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>241.0142888776591</v>
@@ -1920,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1941,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.833957768458675</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2096,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2172,16 +2174,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>46.03546545923035</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>205.7612573255801</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,76 +2317,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I23" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2442,10 +2444,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>86.33905572536996</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2454,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>9.991949277019431</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -2518,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,14 +2554,14 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
@@ -2570,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>100.8824071085284</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2597,16 +2599,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,25 +2684,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>63.64636440614449</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>143.4027167768713</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2789,76 +2791,76 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
+      <c r="H29" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2868,28 +2870,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>4.320372589888956</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>90.4972570899689</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,25 +2921,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,67 +2952,67 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3071,13 +3073,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3105,19 +3107,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>115.1545305496692</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3162,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>76.78074799938825</v>
       </c>
     </row>
     <row r="34">
@@ -3199,55 +3201,55 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3272,16 +3274,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3308,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3342,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>93.30381541392001</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3357,16 +3359,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3393,10 +3395,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>117.9920762390807</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -3405,13 +3407,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3466,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3582,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>82.28530073128385</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>176.2637201985544</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.0801288120801</v>
       </c>
       <c r="T41" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,10 +3839,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>46.54968785507688</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,31 +3976,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>181.0201173812374</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4053,10 +4055,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.39970040110639</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="46">
@@ -4144,52 +4146,52 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>463.0946480769296</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>255.5008658160403</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F2" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
         <v>16.44142755506243</v>
@@ -4337,10 +4339,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4354,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y2" t="n">
-        <v>463.0946480769296</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.481881570041</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="D3" t="n">
-        <v>16.44142755506243</v>
+        <v>271.8092291910373</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>112.5717741855818</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>112.5717741855818</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44142755506243</v>
+        <v>112.5717741855818</v>
       </c>
       <c r="H3" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I3" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4437,22 +4439,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>412.2910008509983</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y3" t="n">
-        <v>204.697218590109</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D5" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4574,10 +4576,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
         <v>732.4113224610707</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="Y5" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="X5" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>664.6130306862817</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>505.3755756808262</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>358.8410177077111</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>220.1101922903266</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
         <v>16.44142755506243</v>
@@ -4650,16 +4652,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O6" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P6" t="n">
         <v>752.6768192397923</v>
@@ -4680,16 +4682,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>807.4381113577983</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,10 +4780,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
         <v>16.44142755506243</v>
@@ -4805,7 +4807,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
         <v>176.2910403306274</v>
@@ -4835,16 +4837,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="V8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W8" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="X8" t="n">
         <v>614.4775954922324</v>
-      </c>
-      <c r="V8" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="W8" t="n">
-        <v>406.8838132313431</v>
-      </c>
-      <c r="X8" t="n">
-        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
         <v>406.8838132313431</v>
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.19556020784815</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C9" t="n">
-        <v>17.19556020784815</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D9" t="n">
-        <v>17.19556020784815</v>
+        <v>465.5431858309811</v>
       </c>
       <c r="E9" t="n">
-        <v>17.19556020784815</v>
+        <v>306.3057308255256</v>
       </c>
       <c r="F9" t="n">
-        <v>17.19556020784815</v>
+        <v>159.7711728524106</v>
       </c>
       <c r="G9" t="n">
-        <v>17.19556020784815</v>
+        <v>21.04034743502606</v>
       </c>
       <c r="H9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4887,16 +4889,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>345.2979091154422</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>137.7041268545529</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X9" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.19556020784815</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4984,28 +4986,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>453.0030327087026</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C11" t="n">
-        <v>453.0030327087026</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
         <v>176.2910403306274</v>
@@ -5060,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W11" t="n">
-        <v>660.5968149695918</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y11" t="n">
-        <v>660.5968149695918</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,10 +5126,10 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
         <v>366.5706756325438</v>
@@ -5142,28 +5144,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>814.3015730003187</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>814.3015730003187</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T12" t="n">
-        <v>814.3015730003187</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U12" t="n">
-        <v>814.3015730003187</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="V12" t="n">
-        <v>814.3015730003187</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="W12" t="n">
-        <v>814.3015730003187</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X12" t="n">
-        <v>814.3015730003187</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y12" t="n">
-        <v>814.3015730003187</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="13">
@@ -5173,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5221,28 +5223,28 @@
         <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5282,7 +5284,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L14" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5303,25 +5305,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>101.1118002527726</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,16 +5363,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5391,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="16">
@@ -5540,7 +5542,7 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
         <v>506.1786963984129</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23.90796037760316</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C18" t="n">
-        <v>23.90796037760316</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D18" t="n">
-        <v>23.90796037760316</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>23.90796037760316</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="W18" t="n">
-        <v>23.90796037760316</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="X18" t="n">
-        <v>23.90796037760316</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y18" t="n">
-        <v>23.90796037760316</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="19">
@@ -5701,16 +5703,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.7299197543128</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="C21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="D21" t="n">
-        <v>325.807288741569</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E21" t="n">
-        <v>166.5698337361135</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F21" t="n">
-        <v>20.03527576299844</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G21" t="n">
-        <v>20.03527576299844</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>20.03527576299844</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="V21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="W21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="X21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
       <c r="Y21" t="n">
-        <v>325.807288741569</v>
+        <v>816.3871559026832</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C23" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E23" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F23" t="n">
-        <v>718.7806050553886</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G23" t="n">
-        <v>475.3318284112885</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6069,19 +6071,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>876.8459881112726</v>
       </c>
       <c r="S24" t="n">
-        <v>862.8876260635219</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="T24" t="n">
-        <v>862.8876260635219</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="U24" t="n">
-        <v>862.8876260635219</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="V24" t="n">
-        <v>852.7947480059265</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="W24" t="n">
-        <v>609.3459713618265</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>703.4286435619415</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>495.6683447969875</v>
       </c>
     </row>
     <row r="25">
@@ -6166,22 +6168,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>194.4883050441255</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="C27" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="D27" t="n">
-        <v>20.03527576299844</v>
+        <v>463.7839815061678</v>
       </c>
       <c r="E27" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F27" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6312,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>899.7678985347327</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>899.7678985347327</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="V27" t="n">
-        <v>790.6398109613051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="W27" t="n">
-        <v>547.1910343172051</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="X27" t="n">
-        <v>339.3395341116723</v>
+        <v>671.5442802711217</v>
       </c>
       <c r="Y27" t="n">
-        <v>194.4883050441255</v>
+        <v>463.7839815061678</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>262.7299197543128</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6491,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>749.627473042513</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>506.1786963984129</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>344.6327430815143</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="C30" t="n">
-        <v>170.1797138003873</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="D30" t="n">
-        <v>170.1797138003873</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="E30" t="n">
-        <v>170.1797138003873</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="F30" t="n">
-        <v>23.64515582727228</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>200.9921430510046</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
         <v>19.28114311021272</v>
@@ -6543,19 +6545,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6567,25 +6569,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="X30" t="n">
-        <v>720.6083788665362</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="Y30" t="n">
-        <v>512.8480801015824</v>
+        <v>360.2295980564601</v>
       </c>
     </row>
     <row r="31">
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
         <v>19.28114311021272</v>
@@ -6658,13 +6660,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6679,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>284.5332603973924</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="C33" t="n">
-        <v>284.5332603973924</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D33" t="n">
-        <v>135.5988507361412</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
         <v>542.809531908403</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V33" t="n">
-        <v>735.8335372470253</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W33" t="n">
-        <v>492.3847606029253</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X33" t="n">
-        <v>284.5332603973924</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y33" t="n">
-        <v>284.5332603973924</v>
+        <v>334.0310381033958</v>
       </c>
     </row>
     <row r="34">
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
         <v>829.5248650203655</v>
@@ -6895,13 +6897,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>749.627473042513</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F36" t="n">
-        <v>109.5807722530562</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>109.5807722530562</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7041,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>570.28636612118</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>570.28636612118</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>570.28636612118</v>
       </c>
       <c r="W36" t="n">
-        <v>619.4388494194218</v>
+        <v>570.28636612118</v>
       </c>
       <c r="X36" t="n">
-        <v>411.587349213889</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="Y36" t="n">
-        <v>203.827050448935</v>
+        <v>362.4348659156472</v>
       </c>
     </row>
     <row r="37">
@@ -7114,28 +7116,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7260,13 +7262,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>660.701031422288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>432.4774131586771</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V39" t="n">
-        <v>197.3253049269343</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W39" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="40">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7421,7 +7423,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7436,25 +7438,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>811.9797623848946</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,19 +7496,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>142.2888212580996</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.7514872519972</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>549.2141532458947</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X42" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y42" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>431.628992076841</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C44" t="n">
-        <v>224.0352098159517</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7655,10 +7657,10 @@
         <v>196.517279139721</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
         <v>732.4113224610707</v>
@@ -7670,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T44" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="Y44" t="n">
-        <v>639.2227743377304</v>
+        <v>443.6989813239244</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>191.6485894889752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M45" t="n">
-        <v>219.90409354896</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7837,19 +7839,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,13 +8224,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P5" t="n">
         <v>321.7987081714826</v>
@@ -8298,19 +8300,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.836493543131</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8453,10 +8455,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8535,19 +8537,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>397.2306702988408</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
@@ -8772,13 +8774,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
         <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8930,10 +8932,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N18" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7328472056018</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,22 +9719,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9960,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10431,13 +10433,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>303.312501347746</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,22 +10667,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N36" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10908,16 +10910,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11069,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11142,7 +11144,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>139.0491612396719</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11151,13 +11153,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>213.1865395540696</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11305,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>150.567170896597</v>
       </c>
       <c r="L45" t="n">
         <v>344.0722242181546</v>
@@ -11385,7 +11387,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,10 +22558,10 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F2" t="n">
-        <v>375.7250463016238</v>
+        <v>225.855928360474</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22592,10 +22594,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -22610,7 +22612,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22626,13 +22628,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>152.868449513487</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22641,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>107.2096252499553</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22677,13 +22679,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>200.9102526910243</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22860,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10.64942005369585</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22920,16 +22922,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>218.3136534180552</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>184.2527743897701</v>
       </c>
       <c r="D8" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23075,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23103,25 +23105,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>107.6825135553325</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,19 +23147,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>113.4971061691875</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -23166,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="10">
@@ -23203,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23224,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23270,16 +23272,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>201.2648786994755</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23315,13 +23317,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23334,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>92.46572744736828</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>67.65324031232404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23440,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>132.9899077786024</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23516,7 +23518,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T14" t="n">
         <v>17.57800512585095</v>
@@ -23552,7 +23554,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>318.5412475992045</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23586,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>53.51984819247762</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23631,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23780,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>10.33136403017744</v>
@@ -23808,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23829,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>85.5626750829564</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,19 +23858,19 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>147.4868593085331</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23984,7 +23986,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24014,16 +24016,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24060,16 +24062,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,19 +24095,19 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>125.6477056446075</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>27.03932982384518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.181203141508689</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24263,7 +24265,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24272,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24330,10 +24332,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>13.81877842727317</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24342,13 +24344,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>222.8086378724058</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -24406,10 +24408,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24440,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>238.5923950072388</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24485,16 +24487,16 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24522,19 +24524,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,25 +24572,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>108.0368066976933</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>62.27997900043303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24601,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24646,7 +24648,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24731,7 +24733,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24740,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24756,28 +24758,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>133.0231445733217</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>21.73818714652757</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24807,25 +24809,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24838,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24898,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24929,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24959,13 +24961,13 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>156.5945010984978</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24993,19 +24995,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>42.49054990573178</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25041,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25050,7 +25052,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>128.9019477779161</v>
       </c>
     </row>
     <row r="34">
@@ -25087,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25160,16 +25162,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288198</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
@@ -25196,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25230,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.22936823594733</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25245,16 +25247,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25281,10 +25283,10 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>82.17265245574092</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -25293,13 +25295,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25354,7 +25356,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25369,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901543</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -25406,7 +25408,7 @@
         <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25457,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25470,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>65.1597648333549</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25491,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>75.43126296236522</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25649,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>49.93994077416525</v>
       </c>
       <c r="T41" t="n">
-        <v>52.06643139743881</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>42.84694499633819</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25880,13 +25882,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25910,7 +25912,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,13 +25921,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>70.32553552659914</v>
+        <v>232.1439428223613</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25941,10 +25943,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>125.133483248761</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,7 +25994,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="46">
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>426149.6896225003</v>
+        <v>426149.6896225004</v>
       </c>
     </row>
     <row r="3">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448871.9956148848</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>448871.9956148848</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448871.9956148849</v>
+        <v>448871.995614885</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>448871.995614885</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448871.9956148849</v>
+        <v>448871.995614885</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448871.9956148849</v>
+        <v>448871.995614885</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448871.9956148848</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426149.6896225004</v>
+        <v>426149.6896225006</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26316,22 @@
         <v>157757.6418349316</v>
       </c>
       <c r="C2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="D2" t="n">
         <v>157757.6418349316</v>
       </c>
       <c r="E2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349317</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="G2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="H2" t="n">
-        <v>166160.6725313323</v>
+        <v>166160.6725313324</v>
       </c>
       <c r="I2" t="n">
         <v>166160.6725313324</v>
@@ -26341,7 +26343,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="L2" t="n">
-        <v>166160.6725313324</v>
+        <v>166160.6725313323</v>
       </c>
       <c r="M2" t="n">
         <v>166160.6725313324</v>
@@ -26350,7 +26352,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349315</v>
       </c>
       <c r="P2" t="n">
         <v>157757.6418349316</v>
@@ -26430,7 +26432,7 @@
         <v>31909.3965941043</v>
       </c>
       <c r="G4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="H4" t="n">
         <v>33649.84678425771</v>
@@ -26439,22 +26441,22 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="K4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="L4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="M4" t="n">
-        <v>33649.8467842577</v>
+        <v>33649.84678425771</v>
       </c>
       <c r="N4" t="n">
         <v>33649.84678425771</v>
       </c>
       <c r="O4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
       <c r="P4" t="n">
         <v>31909.3965941043</v>
@@ -26522,10 +26524,10 @@
         <v>10851.40371729004</v>
       </c>
       <c r="C6" t="n">
-        <v>79725.16029897991</v>
+        <v>79725.16029897981</v>
       </c>
       <c r="D6" t="n">
-        <v>79725.16029897988</v>
+        <v>79725.16029897987</v>
       </c>
       <c r="E6" t="n">
         <v>113352.7602989799</v>
@@ -26534,22 +26536,22 @@
         <v>113352.7602989799</v>
       </c>
       <c r="G6" t="n">
-        <v>108128.1140091458</v>
+        <v>108128.1140091459</v>
       </c>
       <c r="H6" t="n">
-        <v>117857.1569833129</v>
+        <v>117857.156983313</v>
       </c>
       <c r="I6" t="n">
         <v>117857.156983313</v>
       </c>
       <c r="J6" t="n">
-        <v>64084.64609310358</v>
+        <v>64084.64609310354</v>
       </c>
       <c r="K6" t="n">
         <v>117857.156983313</v>
       </c>
       <c r="L6" t="n">
-        <v>117857.156983313</v>
+        <v>117857.1569833129</v>
       </c>
       <c r="M6" t="n">
         <v>117857.156983313</v>
@@ -26561,7 +26563,7 @@
         <v>113352.7602989798</v>
       </c>
       <c r="P6" t="n">
-        <v>113352.7602989799</v>
+        <v>113352.7602989798</v>
       </c>
     </row>
   </sheetData>
@@ -34705,13 +34707,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34796,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,13 +34944,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,19 +35020,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0.4947814597977008</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35173,10 +35175,10 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35255,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35410,10 +35412,10 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>161.4642553288535</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
@@ -35492,13 +35494,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
         <v>21.52426467247106</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35650,10 +35652,10 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N18" t="n">
-        <v>226.4350751681936</v>
-      </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1784674257276</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36680,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>113.3808631277494</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,13 +37153,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,22 +37387,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="N36" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N36" t="n">
-        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37628,16 +37630,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
+        <v>43.28534947792182</v>
+      </c>
+      <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37789,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37862,7 +37864,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>0.4947814597977008</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37871,13 +37873,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,13 +38025,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
         <v>90.5657124162131</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="L45" t="n">
         <v>205.5178444382804</v>
@@ -38105,7 +38107,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
@@ -38114,7 +38116,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_4_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>774264.4873774205</v>
+        <v>670031.9891139774</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443405</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.0044347</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5058392.175195283</v>
+        <v>5058392.175195281</v>
       </c>
     </row>
     <row r="11">
@@ -667,17 +667,17 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="F2" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="Y2" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>5.025818986541212</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="4">
@@ -837,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>14.69006202085835</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>14.48693373137006</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.5178444382804</v>
@@ -1074,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,29 +1132,29 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>4.552930681163994</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,19 +1332,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1369,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D11" t="n">
+      <c r="H11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1496,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>22.62844559957868</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>158.2881417686508</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1654,13 +1654,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>205.5178444382804</v>
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>165.3371871606759</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>83.82366897073301</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1849,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1894,16 +1894,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1922,16 +1922,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1973,22 +1973,22 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>150.252752286242</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>85.31372784089217</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2080,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
+      <c r="H20" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D20" t="n">
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>212.285385643442</v>
       </c>
     </row>
     <row r="21">
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>143.1689537721622</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>46.03546545923035</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,20 +2317,20 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2362,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2371,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>86.33905572536996</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>35.40726547353844</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2572,10 +2572,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -2611,7 +2611,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>64.38401073897946</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,13 +2642,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.64636440614449</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2693,13 +2693,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2806,11 +2806,11 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>212.2853856434421</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,25 +2876,25 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>11.25081206885612</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>90.4972570899689</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>208.2638363878124</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>54.32655725927285</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3161,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>76.78074799938825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>241.0142888776591</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0.7465913262578567</v>
@@ -3392,22 +3392,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>29.05241763862484</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>117.9920762390807</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -3483,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,56 +3514,56 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G38" t="n">
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="S38" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>65.13060206523731</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>82.28530073128385</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3751,55 +3751,55 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G41" t="n">
+      <c r="T41" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="U41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>159.0801288120801</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3824,25 +3824,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>144.3759709686855</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3979,73 +3979,73 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="T44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
       <c r="U44" t="n">
-        <v>19.20171008547518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,28 +4058,28 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G2" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H2" t="n">
         <v>16.44142755506243</v>
@@ -4342,7 +4342,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4351,31 +4351,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>446.2622584721643</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
-        <v>271.8092291910373</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E3" t="n">
-        <v>112.5717741855818</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F3" t="n">
-        <v>112.5717741855818</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G3" t="n">
-        <v>112.5717741855818</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H3" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J3" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4442,19 +4442,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y3" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4521,19 +4521,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>614.4775954922324</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C5" t="n">
-        <v>406.8838132313431</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="D5" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4582,37 +4582,37 @@
         <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="C6" t="n">
-        <v>16.44142755506243</v>
+        <v>31.27987404077794</v>
       </c>
       <c r="D6" t="n">
         <v>16.44142755506243</v>
@@ -4652,13 +4652,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
         <v>366.5706756325438</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O6" t="n">
         <v>570.0333416264414</v>
@@ -4673,25 +4673,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="V6" t="n">
-        <v>807.4381113577983</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="W6" t="n">
-        <v>599.8443290969091</v>
+        <v>446.4674385625565</v>
       </c>
       <c r="X6" t="n">
-        <v>392.2505468360198</v>
+        <v>238.8736563016672</v>
       </c>
       <c r="Y6" t="n">
-        <v>184.6567645751305</v>
+        <v>31.27987404077794</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4761,16 +4761,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4810,13 +4810,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4825,31 +4825,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C9" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="D9" t="n">
-        <v>465.5431858309811</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="E9" t="n">
-        <v>306.3057308255256</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="F9" t="n">
-        <v>159.7711728524106</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="G9" t="n">
-        <v>21.04034743502606</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="H9" t="n">
         <v>16.44142755506243</v>
@@ -4886,19 +4886,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
         <v>752.6768192397923</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="W9" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="X9" t="n">
-        <v>822.0713777531216</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="Y9" t="n">
-        <v>614.4775954922324</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>431.628992076841</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>224.0352098159517</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
         <v>16.44142755506243</v>
@@ -5044,10 +5044,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V11" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W11" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X11" t="n">
-        <v>431.628992076841</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="Y11" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="12">
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.19556020784815</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="C12" t="n">
-        <v>17.19556020784815</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="D12" t="n">
-        <v>17.19556020784815</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="E12" t="n">
         <v>17.19556020784815</v>
@@ -5129,43 +5129,43 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>799.2143619959714</v>
       </c>
       <c r="S12" t="n">
-        <v>547.4845037566762</v>
+        <v>799.2143619959714</v>
       </c>
       <c r="T12" t="n">
-        <v>345.2979091154422</v>
+        <v>799.2143619959714</v>
       </c>
       <c r="U12" t="n">
-        <v>185.4108972279162</v>
+        <v>591.6205797350822</v>
       </c>
       <c r="V12" t="n">
-        <v>185.4108972279162</v>
+        <v>384.0267974741929</v>
       </c>
       <c r="W12" t="n">
-        <v>185.4108972279162</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="X12" t="n">
-        <v>185.4108972279162</v>
+        <v>176.4330152133036</v>
       </c>
       <c r="Y12" t="n">
-        <v>185.4108972279162</v>
+        <v>176.4330152133036</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="H14" t="n">
         <v>16.44142755506243</v>
@@ -5281,10 +5281,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K14" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L14" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
         <v>379.753706324525</v>
@@ -5302,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>406.8838132313431</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="D15" t="n">
-        <v>406.8838132313431</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E15" t="n">
-        <v>247.6463582258876</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>101.1118002527726</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L15" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M15" t="n">
-        <v>548.724319600695</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>752.1869855945927</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5393,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5542,25 +5542,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>501.9060370580465</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C18" t="n">
-        <v>327.4530077769195</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>178.5185981156682</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5621,25 +5621,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>812.2866986558463</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="V18" t="n">
-        <v>877.8816728430684</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="W18" t="n">
-        <v>877.8816728430684</v>
+        <v>610.1001040146123</v>
       </c>
       <c r="X18" t="n">
-        <v>877.8816728430684</v>
+        <v>402.2486038090794</v>
       </c>
       <c r="Y18" t="n">
-        <v>670.1213740781145</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="19">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>816.3871559026832</v>
+        <v>342.668582052591</v>
       </c>
       <c r="C21" t="n">
-        <v>816.3871559026832</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D21" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>178.8501590306595</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>417.4543050195419</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>816.3871559026832</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>816.3871559026832</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5934,13 +5934,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
         <v>19.28114311021272</v>
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>953.9655401424092</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>327.4530077769195</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>178.5185981156682</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
+        <v>487.8483949674443</v>
+      </c>
+      <c r="N24" t="n">
         <v>542.809531908403</v>
-      </c>
-      <c r="N24" t="n">
-        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
         <v>781.4136778972854</v>
@@ -6092,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>876.8459881112726</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>703.4286435619415</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>703.4286435619415</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>703.4286435619415</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>703.4286435619415</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W24" t="n">
-        <v>703.4286435619415</v>
+        <v>55.04605772994853</v>
       </c>
       <c r="X24" t="n">
-        <v>703.4286435619415</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>495.6683447969875</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6171,19 +6171,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>577.2332497330343</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="C26" t="n">
-        <v>577.2332497330343</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="D26" t="n">
-        <v>333.7844730889342</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="E26" t="n">
-        <v>333.7844730889342</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F26" t="n">
-        <v>333.7844730889342</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G26" t="n">
-        <v>333.7844730889342</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="I26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>577.2332497330343</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U26" t="n">
-        <v>577.2332497330343</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V26" t="n">
-        <v>577.2332497330343</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W26" t="n">
-        <v>577.2332497330343</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X26" t="n">
-        <v>577.2332497330343</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y26" t="n">
-        <v>577.2332497330343</v>
+        <v>100.4273118130612</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D27" t="n">
-        <v>463.7839815061678</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E27" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6311,13 +6311,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>899.7678985347327</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>899.7678985347327</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>671.5442802711217</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>671.5442802711217</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>671.5442802711217</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>671.5442802711217</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>463.7839815061678</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="28">
@@ -6363,22 +6363,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6493,22 +6493,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>360.2295980564601</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="C30" t="n">
-        <v>360.2295980564601</v>
+        <v>452.9407326573341</v>
       </c>
       <c r="D30" t="n">
-        <v>360.2295980564601</v>
+        <v>304.0063229960828</v>
       </c>
       <c r="E30" t="n">
-        <v>200.9921430510046</v>
+        <v>144.7688679906273</v>
       </c>
       <c r="F30" t="n">
-        <v>200.9921430510046</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G30" t="n">
-        <v>200.9921430510046</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>725.4530095217538</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V30" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W30" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X30" t="n">
-        <v>360.2295980564601</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y30" t="n">
-        <v>360.2295980564601</v>
+        <v>452.9407326573341</v>
       </c>
     </row>
     <row r="31">
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D31" t="n">
         <v>19.28114311021272</v>
@@ -6642,31 +6642,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="33">
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>165.8157010833278</v>
+        <v>660.701031422288</v>
       </c>
       <c r="C33" t="n">
-        <v>165.8157010833278</v>
+        <v>486.248002141161</v>
       </c>
       <c r="D33" t="n">
-        <v>165.8157010833278</v>
+        <v>486.248002141161</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>327.0105471357055</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6809,22 +6809,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V33" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W33" t="n">
-        <v>619.4388494194218</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X33" t="n">
-        <v>411.587349213889</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y33" t="n">
-        <v>334.0310381033958</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
         <v>506.1786963984129</v>
@@ -6970,19 +6970,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
         <v>20.03527576299844</v>
@@ -7022,16 +7022,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="T36" t="n">
-        <v>570.28636612118</v>
+        <v>934.7112791079849</v>
       </c>
       <c r="U36" t="n">
-        <v>570.28636612118</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V36" t="n">
-        <v>570.28636612118</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W36" t="n">
-        <v>570.28636612118</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7113,25 +7113,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R37" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S37" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T37" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U37" t="n">
-        <v>66.78106667958005</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W37" t="n">
         <v>19.28114311021272</v>
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>277.6047704292607</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7286,19 +7286,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>728.9050472788936</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>485.4562706347935</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X39" t="n">
-        <v>277.6047704292607</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y39" t="n">
-        <v>277.6047704292607</v>
+        <v>85.06963004479587</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7423,40 +7423,40 @@
         <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R41" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>651.2927635848137</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="T41" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>651.2927635848137</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X41" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y41" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="42">
@@ -7466,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>211.6833797714288</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>415.1460457653264</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O42" t="n">
         <v>822.0713777531216</v>
@@ -7514,28 +7514,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X42" t="n">
-        <v>199.2900309704538</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>720.9018483060073</v>
       </c>
     </row>
     <row r="43">
@@ -7596,16 +7596,16 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>670.6884303378189</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T44" t="n">
-        <v>670.6884303378189</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C45" t="n">
-        <v>16.44142755506243</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D45" t="n">
-        <v>16.44142755506243</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E45" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F45" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>29.03990215807806</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>232.5025681519757</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M45" t="n">
-        <v>232.5025681519757</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7760,19 +7760,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X45" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y45" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="46">
@@ -7836,7 +7836,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
         <v>16.44142755506243</v>
@@ -7990,10 +7990,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8230,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8300,16 +8300,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>160.0786444523452</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8458,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>435.8640776655532</v>
@@ -8467,7 +8467,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8777,7 +8777,7 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O15" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M18" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
@@ -9260,7 +9260,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9485,13 +9485,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9959,16 +9959,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M36" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11071,13 +11071,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O41" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11141,10 +11141,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>335.768472927719</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
@@ -11153,7 +11153,7 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>213.1865395540696</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>150.567170896597</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
@@ -11393,10 +11393,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22555,16 +22555,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>225.855928360474</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22612,10 +22612,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>164.2132562401886</v>
+        <v>198.7016825117765</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,13 +22643,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>107.2096252499553</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>24.66257839606692</v>
       </c>
     </row>
     <row r="4">
@@ -22725,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>200.9102526910243</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>132.7550035437804</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22913,19 +22913,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>218.3136534180552</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0.2551407651970692</v>
@@ -22962,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -23001,7 +23001,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23041,7 +23041,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>4.958045132125505</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23065,10 +23065,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23105,19 +23105,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>107.6825135553325</v>
+        <v>102.8984979590969</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23150,25 +23150,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,19 +23220,19 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23257,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23272,10 +23272,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23317,16 +23317,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23345,7 +23345,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
@@ -23384,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.52938855306445</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>67.65324031232404</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23509,10 +23509,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>168.4453839490745</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
@@ -23542,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>45.82780846955609</v>
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>7.371311827639886</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>53.51984819247762</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,10 +23633,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23737,16 +23737,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>182.6195704309962</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23810,16 +23810,16 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
@@ -23834,7 +23834,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23861,22 +23861,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>21.43041881759581</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>147.4868593085331</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23968,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -23983,16 +23983,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>149.1294050414824</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24028,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>173.9525530126116</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>23.36422987770516</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,10 +24098,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>125.6477056446075</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24183,7 +24183,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24226,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24250,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24259,13 +24259,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>13.81877842727317</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>170.365719729939</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24411,7 +24411,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24460,10 +24460,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>238.5923950072388</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>130.1411825545859</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>102.1491729108879</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24530,13 +24530,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24545,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>108.0368066976933</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24581,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>34.05985351325981</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24621,7 +24621,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J28" t="n">
         <v>93.35918011667277</v>
@@ -24694,10 +24694,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>127.189416472325</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24733,19 +24733,19 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>97.54843351316518</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24764,25 +24764,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>133.8184003245278</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>21.73818714652757</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -24827,7 +24827,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>101.5905486845387</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24882,7 +24882,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>207.0389011273226</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>90.74265513411103</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25049,7 +25049,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
@@ -25058,13 +25058,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>128.9019477779161</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309074</v>
       </c>
       <c r="H34" t="n">
         <v>162.2271725074396</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25162,10 +25162,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>174.288448637476</v>
@@ -25210,10 +25210,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266928</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25247,13 +25247,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,22 +25280,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>71.10541651401829</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>82.17265245574092</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -25371,10 +25371,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1127189901543</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>242.2195147380239</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25438,19 +25438,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>101.40258158463</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>65.1597648333549</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120115</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25639,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25651,7 +25651,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25672,22 +25672,22 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>49.93994077416525</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>42.07573218289394</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25712,25 +25712,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>3.06909459595326</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25836,7 +25836,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S43" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T43" t="n">
         <v>227.9455894282815</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25867,7 +25867,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,19 +25876,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>232.1439428223613</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="45">
@@ -25946,28 +25946,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>24.66257839606692</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26076,10 +26076,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>426149.6896225004</v>
+        <v>426149.6896225003</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448871.9956148849</v>
+        <v>448871.995614885</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>448871.995614885</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448871.995614885</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448871.995614885</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448871.995614885</v>
+        <v>448871.9956148849</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>426149.6896225006</v>
+        <v>426149.6896225003</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>157757.6418349316</v>
       </c>
       <c r="F2" t="n">
-        <v>157757.6418349316</v>
+        <v>157757.6418349317</v>
       </c>
       <c r="G2" t="n">
         <v>166160.6725313324</v>
@@ -26340,10 +26340,10 @@
         <v>166160.6725313324</v>
       </c>
       <c r="K2" t="n">
+        <v>166160.6725313323</v>
+      </c>
+      <c r="L2" t="n">
         <v>166160.6725313324</v>
-      </c>
-      <c r="L2" t="n">
-        <v>166160.6725313323</v>
       </c>
       <c r="M2" t="n">
         <v>166160.6725313324</v>
@@ -26352,7 +26352,7 @@
         <v>166160.6725313324</v>
       </c>
       <c r="O2" t="n">
-        <v>157757.6418349315</v>
+        <v>157757.6418349316</v>
       </c>
       <c r="P2" t="n">
         <v>157757.6418349316</v>
@@ -26441,7 +26441,7 @@
         <v>33649.84678425771</v>
       </c>
       <c r="J4" t="n">
-        <v>33649.84678425771</v>
+        <v>33649.8467842577</v>
       </c>
       <c r="K4" t="n">
         <v>33649.84678425771</v>
@@ -26459,7 +26459,7 @@
         <v>31909.39659410429</v>
       </c>
       <c r="P4" t="n">
-        <v>31909.3965941043</v>
+        <v>31909.39659410429</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10851.40371729004</v>
+        <v>-1786.758437570497</v>
       </c>
       <c r="C6" t="n">
-        <v>79725.16029897981</v>
+        <v>67086.99814411934</v>
       </c>
       <c r="D6" t="n">
-        <v>79725.16029897987</v>
+        <v>67086.99814411934</v>
       </c>
       <c r="E6" t="n">
-        <v>113352.7602989799</v>
+        <v>100714.5981441193</v>
       </c>
       <c r="F6" t="n">
-        <v>113352.7602989799</v>
+        <v>100714.5981441194</v>
       </c>
       <c r="G6" t="n">
-        <v>108128.1140091459</v>
+        <v>95910.10338910547</v>
       </c>
       <c r="H6" t="n">
-        <v>117857.156983313</v>
+        <v>105639.1463632726</v>
       </c>
       <c r="I6" t="n">
-        <v>117857.156983313</v>
+        <v>105639.1463632725</v>
       </c>
       <c r="J6" t="n">
-        <v>64084.64609310354</v>
+        <v>51866.63547306308</v>
       </c>
       <c r="K6" t="n">
-        <v>117857.156983313</v>
+        <v>105639.1463632725</v>
       </c>
       <c r="L6" t="n">
-        <v>117857.1569833129</v>
+        <v>105639.1463632726</v>
       </c>
       <c r="M6" t="n">
-        <v>117857.156983313</v>
+        <v>105639.1463632726</v>
       </c>
       <c r="N6" t="n">
-        <v>117857.156983313</v>
+        <v>105639.1463632726</v>
       </c>
       <c r="O6" t="n">
-        <v>113352.7602989798</v>
+        <v>100714.5981441193</v>
       </c>
       <c r="P6" t="n">
-        <v>113352.7602989798</v>
+        <v>100714.5981441194</v>
       </c>
     </row>
   </sheetData>
@@ -34710,10 +34710,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
       <c r="N3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,16 +35020,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="M6" t="n">
         <v>21.52426467247106</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35178,7 +35178,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
         <v>205.5178444382804</v>
@@ -35187,7 +35187,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0.494781459797586</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35497,7 +35497,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="N15" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M18" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
@@ -35980,7 +35980,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36135,7 +36135,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36205,13 +36205,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36679,16 +36679,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M36" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37791,13 +37791,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O41" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
@@ -37873,7 +37873,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>70.5902951096252</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>12.72573192223801</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
@@ -38113,10 +38113,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
